--- a/new-info1/web.xlsx
+++ b/new-info1/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10080"/>
+    <workbookView windowWidth="13440" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>domain</t>
   </si>
@@ -40,16 +40,10 @@
     <t>color2</t>
   </si>
   <si>
-    <t>read.susurrop.top</t>
+    <t>read.windrise.cloud</t>
   </si>
   <si>
-    <t>#1781b5</t>
-  </si>
-  <si>
-    <t>read.panoramafind.fun</t>
-  </si>
-  <si>
-    <t>#Fd8134</t>
+    <t>#f0cfe3</t>
   </si>
   <si>
     <t>invicts.site</t>
@@ -100,21 +94,22 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color rgb="FF2972F4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,13 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1781B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD8134"/>
+        <fgColor rgb="FFF0CFE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,12 +471,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,7 +616,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,119 +628,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -747,7 +751,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -756,7 +760,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1152,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1174,12 +1181,8 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
@@ -1205,8 +1208,7 @@
     <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A5" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="read.susurrop.top" tooltip="http://susurrop.top"/>
-    <hyperlink ref="A3" r:id="rId5" display="read.panoramafind.fun" tooltip="http://panoramafind.fun"/>
+    <hyperlink ref="A2" r:id="rId4" display="read.windrise.cloud" tooltip="http://windrise.cloud"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1237,18 +1239,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
